--- a/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,76%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 14,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,03; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,22; -1,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,22; 4,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,86; 461,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-6,83; 6,65</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; -2,37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 1,59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 2,7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; 97,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 139,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,93; 42,25</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-9,39; 15,23</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 46,03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 9,36</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-20,01; 5,43</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-52,54; 192,67</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,66; 56,86</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 6,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 2,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 1,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; 2,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 93,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 136,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,04; 120,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,11; 35,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-46,76%</t>
+          <t>-45,19%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 4,68</t>
+          <t>-14,89; 4,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>-27,02%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 2,7</t>
+          <t>-7,43; 2,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 42,25</t>
+          <t>-64,3; 32,93</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-28,83%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 5,43</t>
+          <t>-19,48; 5,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 56,86</t>
+          <t>-73,34; 61,99</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,88%</t>
+          <t>-25,07%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 2,73</t>
+          <t>-7,43; 2,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 35,47</t>
+          <t>-56,39; 28,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Estudios-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 14,13</t>
+          <t>-6,58; 12,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 0,0</t>
+          <t>-19,82; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -1,81</t>
+          <t>-15,59; -1,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 4,96</t>
+          <t>-15,62; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,86; 461,93</t>
+          <t>-100,0; 329,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 6,65</t>
+          <t>-6,19; 6,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -2,37</t>
+          <t>-12,65; -2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,59</t>
+          <t>-4,24; 1,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,08</t>
+          <t>-7,85; 2,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 97,4</t>
+          <t>-56,69; 102,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 139,92</t>
+          <t>-100,0; 254,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 32,93</t>
+          <t>-64,22; 37,66</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 15,23</t>
+          <t>-10,44; 15,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 46,03</t>
+          <t>0,0; 46,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 9,36</t>
+          <t>-4,33; 8,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 5,93</t>
+          <t>-19,74; 6,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 192,67</t>
+          <t>-52,8; 212,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 61,99</t>
+          <t>-72,97; 70,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,86</t>
+          <t>-2,84; 6,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,16</t>
+          <t>-7,91; 2,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,99</t>
+          <t>-3,78; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,38</t>
+          <t>-8,17; 1,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 93,45</t>
+          <t>-26,04; 88,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,17</t>
+          <t>-100,0; 96,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,04; 120,28</t>
+          <t>-80,69; 110,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 28,87</t>
+          <t>-57,16; 21,01</t>
         </is>
       </c>
     </row>
